--- a/docs/Extension-CareConnect-RelatedProblemHeader-1.xlsx
+++ b/docs/Extension-CareConnect-RelatedProblemHeader-1.xlsx
@@ -294,7 +294,7 @@
     <t>A set of codes specifying the kind of relationship that exists with a target problem header condition.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ConditionRelationship-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-ConditionRelationship-1</t>
   </si>
   <si>
     <t>target</t>
@@ -307,7 +307,7 @@
     <t>valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-ProblemHeader-Condition-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-ProblemHeader-Condition-1)
 </t>
   </si>
   <si>
@@ -317,7 +317,7 @@
     <t>Target problem header condition.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-RelatedProblemHeader-1</t>
+    <t>https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-RelatedProblemHeader-1</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="90.2734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.4375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
